--- a/youtube_创意广告.xlsx
+++ b/youtube_创意广告.xlsx
@@ -6188,7 +6188,12 @@
       </c>
       <c r="D193" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/218fdb3cd50ba6fdbba69a3f3006ddb9.mp4</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6377,12 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cfa761035671b9f777aa5e361b52a2b7.mp4</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6782,12 @@
       </c>
       <c r="D215" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/de6b16a2eddb8040816a65e27aa99eb3.mp4</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7754,12 @@
       </c>
       <c r="D251" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8c27b1a13e32858d1c0e94db101547a6.mp4</t>
         </is>
       </c>
     </row>
@@ -8058,7 +8078,12 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6223d29eb1798848c2b03ad02adbdc6a.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_创意广告.xlsx
+++ b/youtube_创意广告.xlsx
@@ -6191,7 +6191,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/218fdb3cd50ba6fdbba69a3f3006ddb9.mp4</t>
         </is>
@@ -6380,7 +6380,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E200" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cfa761035671b9f777aa5e361b52a2b7.mp4</t>
         </is>
@@ -6785,7 +6785,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E215" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/de6b16a2eddb8040816a65e27aa99eb3.mp4</t>
         </is>
@@ -7757,7 +7757,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
+      <c r="E251" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8c27b1a13e32858d1c0e94db101547a6.mp4</t>
         </is>
@@ -8081,7 +8081,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6223d29eb1798848c2b03ad02adbdc6a.mp4</t>
         </is>
@@ -8105,7 +8105,12 @@
       </c>
       <c r="D264" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bad9374a1c5b7d3b78924035826ca2b4.mp4</t>
         </is>
       </c>
     </row>
@@ -8127,7 +8132,12 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c943574eb8c4c868146de4136fca0636.mp4</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8159,12 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/38321f37ee4e518262861d63ecaa8453.mp4</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8186,12 @@
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/18185641167522d748cbd305bbec92ec.mp4</t>
         </is>
       </c>
     </row>
@@ -8193,7 +8213,12 @@
       </c>
       <c r="D268" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E268" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6f071dcc9cf4a660cb1e281acb74295b.mp4</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8240,12 @@
       </c>
       <c r="D269" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/73bf45dd8aa91cad48cf503adaf5946c.mp4</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8267,12 @@
       </c>
       <c r="D270" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7238042e92a6c277e087f6b8e59d03c6.mp4</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8294,12 @@
       </c>
       <c r="D271" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c8574ebac71d6824a32d44792cc0a27f.mp4</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8348,12 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/923089dc40eac790236aa5de2f66595f.mp4</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8375,12 @@
       </c>
       <c r="D274" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a494f45bba56c6a8663d1bcfccc71305.mp4</t>
         </is>
       </c>
     </row>
@@ -8352,7 +8402,12 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/778023b55554f03a1df1f9c5a4a97cb9.mp4</t>
         </is>
       </c>
     </row>
@@ -8374,7 +8429,12 @@
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E276" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d45ca52873caf089692389cd3daa43f8.mp4</t>
         </is>
       </c>
     </row>
@@ -8396,7 +8456,12 @@
       </c>
       <c r="D277" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4215415184850d3b7b2298e243c78aae.mp4</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8483,12 @@
       </c>
       <c r="D278" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6820a735a8d2c3948f025b7d108cf16a.mp4</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8510,12 @@
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/761b6a194870b25209fe311166cfa1f1.mp4</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8537,12 @@
       </c>
       <c r="D280" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E280" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1b7fc033f7e2cc10e5387eb3c78bef8b.mp4</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8564,12 @@
       </c>
       <c r="D281" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E281" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ec281df08a75b32910b3c460981a346e.mp4</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8591,12 @@
       </c>
       <c r="D282" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E282" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/46b2ff07cc3c08eeaf89c4207de00cd4.mp4</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8618,12 @@
       </c>
       <c r="D283" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E283" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/94681bb925a483a7c94f1749b462fe97.mp4</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8645,12 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/02f218a63bbd302feba3ebd1683faa18.mp4</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8672,12 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e3526c1b784d27e22f4879a341fb8b8e.mp4</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8699,12 @@
       </c>
       <c r="D286" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/297df5305c46c8d3a2f97994e9b4fcd3.mp4</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8726,12 @@
       </c>
       <c r="D287" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f07775e4699d68117deea5da9215dacc.mp4</t>
         </is>
       </c>
     </row>
@@ -8638,7 +8753,12 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E288" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f0bd9142c29d2a7ace9248bc230141a5.mp4</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8780,12 @@
       </c>
       <c r="D289" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E289" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a1c74f97102499b0721b0b6243263ebe.mp4</t>
         </is>
       </c>
     </row>
@@ -8682,7 +8807,12 @@
       </c>
       <c r="D290" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1dd1ffc5c094cf6cff58ab72c2510202.mp4</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8834,12 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e3439e92f798dd2981ae518aee350829.mp4</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8861,12 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c72304855e65668aac9cf25490cc148a.mp4</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8888,12 @@
       </c>
       <c r="D293" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/568eb8058dae2d47003b45f79e23777e.mp4</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8915,12 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/27985ebc0baec3a5e006e1005477c437.mp4</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8942,12 @@
       </c>
       <c r="D295" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e8c8f94c6fa927163913ab79db3fd4fb.mp4</t>
         </is>
       </c>
     </row>
@@ -8814,7 +8969,12 @@
       </c>
       <c r="D296" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2019f56434c27cf3d67995f05ca73f20.mp4</t>
         </is>
       </c>
     </row>
@@ -8836,7 +8996,12 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8dedfac866cfd267a362e948390e3a01.mp4</t>
         </is>
       </c>
     </row>
@@ -8858,7 +9023,12 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E298" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c74ca0d8f629795da1d53111923a9dfa.mp4</t>
         </is>
       </c>
     </row>
@@ -8880,7 +9050,12 @@
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E299" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c3fe316794261d35a22eff44ac49a9b6.mp4</t>
         </is>
       </c>
     </row>
@@ -8902,7 +9077,12 @@
       </c>
       <c r="D300" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b54e2fda730eca4f39e1633ed69c4a7c.mp4</t>
         </is>
       </c>
     </row>
@@ -8924,7 +9104,12 @@
       </c>
       <c r="D301" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E301" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/059814d3f405770b4183716be4456250.mp4</t>
         </is>
       </c>
     </row>
@@ -8946,7 +9131,12 @@
       </c>
       <c r="D302" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E302" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/240af337d4d82e02e9bd4de827d456a7.mp4</t>
         </is>
       </c>
     </row>
@@ -8968,7 +9158,12 @@
       </c>
       <c r="D303" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E303" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/42ddaf06d23f7ec6d09e95686ffd31bf.mp4</t>
         </is>
       </c>
     </row>
@@ -8990,7 +9185,12 @@
       </c>
       <c r="D304" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E304" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e3ac951e2d4ef045647b656a9af9e1e0.mp4</t>
         </is>
       </c>
     </row>
@@ -9012,7 +9212,12 @@
       </c>
       <c r="D305" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E305" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d3d824e618bf1e3400d51e73400f1185.mp4</t>
         </is>
       </c>
     </row>
@@ -9034,7 +9239,12 @@
       </c>
       <c r="D306" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E306" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f890fb6a3cd6a2d697a5687440815d92.mp4</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9332,12 @@
       </c>
       <c r="D310" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E310" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a014ff27bbd57a8a6f6a4fc5a3489b9d.mp4</t>
         </is>
       </c>
     </row>
@@ -9144,7 +9359,12 @@
       </c>
       <c r="D311" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E311" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7137432f445700010f6189808cc30e2a.mp4</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9386,12 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E312" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5f0e6d4577d3353b2ba0bb953234b477.mp4</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9413,12 @@
       </c>
       <c r="D313" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E313" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8d7be25eb641fe287600dcc2c0206c4c.mp4</t>
         </is>
       </c>
     </row>
@@ -9210,7 +9440,12 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E314" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/25998be851b001de7eda575ba46fb8da.mp4</t>
         </is>
       </c>
     </row>
@@ -9232,7 +9467,12 @@
       </c>
       <c r="D315" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E315" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3f19de974bdebd73a2471ac41ed9a9c4.mp4</t>
         </is>
       </c>
     </row>
@@ -9254,7 +9494,12 @@
       </c>
       <c r="D316" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E316" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fbef1c53bd6d163e9ce2f843b616ccc5.mp4</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9521,12 @@
       </c>
       <c r="D317" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/abafe3c994402eac1485d50da1b74a37.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_创意广告.xlsx
+++ b/youtube_创意广告.xlsx
@@ -9266,7 +9266,12 @@
       </c>
       <c r="D307" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/199c582f74d4ceff4985ace9fcc166ec.mp4</t>
         </is>
       </c>
     </row>
@@ -9288,7 +9293,12 @@
       </c>
       <c r="D308" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E308" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a321d6b2b9e22e287b82d2cb72822e76.mp4</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9534,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
+      <c r="E317" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/abafe3c994402eac1485d50da1b74a37.mp4</t>
         </is>
@@ -9548,7 +9558,12 @@
       </c>
       <c r="D318" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E318" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8c855b7c4981539456b05bba99f758b0.mp4</t>
         </is>
       </c>
     </row>
@@ -9570,7 +9585,12 @@
       </c>
       <c r="D319" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E319" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d6d9ec338393abcf81382ef60f29d3ab.mp4</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9612,12 @@
       </c>
       <c r="D320" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E320" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c415d35d69e716fb61541421dae4eb49.mp4</t>
         </is>
       </c>
     </row>
@@ -9614,7 +9639,12 @@
       </c>
       <c r="D321" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E321" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6d44243766f4d5f65af93f8f801311af.mp4</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9666,12 @@
       </c>
       <c r="D322" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E322" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a7d88a0e076de4f7d43472e9f3309db6.mp4</t>
         </is>
       </c>
     </row>
@@ -9658,7 +9693,12 @@
       </c>
       <c r="D323" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E323" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/acb11d996e08cbbf47556d319a03526e.mp4</t>
         </is>
       </c>
     </row>
@@ -9680,7 +9720,12 @@
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E324" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/eeb69170f98b92904554fc6214c1f9ee.mp4</t>
         </is>
       </c>
     </row>
@@ -9702,7 +9747,12 @@
       </c>
       <c r="D325" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E325" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e237d954b6c6a7a4afb745c7702d89bb.mp4</t>
         </is>
       </c>
     </row>
@@ -9724,7 +9774,12 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E326" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/038e297f180458f4b1ebbb492739d5a7.mp4</t>
         </is>
       </c>
     </row>
@@ -9746,7 +9801,12 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E327" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7d19e1492d739949477d29eb11380528.mp4</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9828,12 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E328" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/93657ca87cad1a5b564dd33af00a3823.mp4</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9855,12 @@
       </c>
       <c r="D329" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E329" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d94af986385186be94a9dea10f73e4c8.mp4</t>
         </is>
       </c>
     </row>
@@ -9812,7 +9882,12 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E330" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0ddea7a5e640830d83501df83195e59e.mp4</t>
         </is>
       </c>
     </row>
@@ -9834,7 +9909,12 @@
       </c>
       <c r="D331" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E331" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/06f1f7319aff29d6debc06ebe56b7ce6.mp4</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9936,12 @@
       </c>
       <c r="D332" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E332" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a1359f067628b034ca99438e81bff73d.mp4</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9963,12 @@
       </c>
       <c r="D333" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E333" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4286e25c35e0a69ae070fa8462061c7a.mp4</t>
         </is>
       </c>
     </row>
@@ -9900,7 +9990,12 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E334" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3af8693716b42f52c2f7239120b2076b.mp4</t>
         </is>
       </c>
     </row>
@@ -9922,7 +10017,12 @@
       </c>
       <c r="D335" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E335" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c549fdfd650fa75411e2b3935a26f38f.mp4</t>
         </is>
       </c>
     </row>
@@ -9944,7 +10044,12 @@
       </c>
       <c r="D336" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E336" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/87c30181f30bbf0ddd9222e72a4f4afe.mp4</t>
         </is>
       </c>
     </row>
@@ -9966,7 +10071,12 @@
       </c>
       <c r="D337" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E337" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e6b8d5991bd0d6fc77f9d65cac9ad4ea.mp4</t>
         </is>
       </c>
     </row>
@@ -9988,7 +10098,12 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E338" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/38ec7fe86a754b5a267908ca62dae0ae.mp4</t>
         </is>
       </c>
     </row>
@@ -10010,7 +10125,12 @@
       </c>
       <c r="D339" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E339" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/48cd1a422237562e7c0ed610581f87dc.mp4</t>
         </is>
       </c>
     </row>
@@ -10032,7 +10152,12 @@
       </c>
       <c r="D340" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E340" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/69b4b2f97d1e98a64a403d066634503d.mp4</t>
         </is>
       </c>
     </row>
@@ -10054,7 +10179,12 @@
       </c>
       <c r="D341" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E341" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d054616e337d8ea9a9f0bd486f2ce6f7.mp4</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10206,12 @@
       </c>
       <c r="D342" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E342" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/552ad63fde295724138383ed5eeb359c.mp4</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10233,12 @@
       </c>
       <c r="D343" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E343" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1f045f132197c4a7612f5c4276fecb75.mp4</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10260,12 @@
       </c>
       <c r="D344" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E344" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/09ac79a8cd7e5a33fb167d0a704d2d6d.mp4</t>
         </is>
       </c>
     </row>
@@ -10142,7 +10287,12 @@
       </c>
       <c r="D345" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E345" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/62794cf7356c05496d8b9f413eeeb2f0.mp4</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10314,12 @@
       </c>
       <c r="D346" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E346" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/36af10206170e016243591c1951cea66.mp4</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10341,12 @@
       </c>
       <c r="D347" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E347" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8d8e34634ae3ba5ff9a3836e2bd13351.mp4</t>
         </is>
       </c>
     </row>
@@ -10208,7 +10368,12 @@
       </c>
       <c r="D348" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E348" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f8e6df508eb1c7498a1a197a40796589.mp4</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10395,12 @@
       </c>
       <c r="D349" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E349" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/efcd83054d2982014aedbe0bd1b915bb.mp4</t>
         </is>
       </c>
     </row>
@@ -10252,7 +10422,12 @@
       </c>
       <c r="D350" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E350" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cde03bedb2ab3af6b730419bd922ff5c.mp4</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10449,12 @@
       </c>
       <c r="D351" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E351" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/18972a6c7d5dba5332376c0273aeb7ff.mp4</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10476,12 @@
       </c>
       <c r="D352" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E352" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/124bbf54b2244a639dc988cfeb240226.mp4</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10503,12 @@
       </c>
       <c r="D353" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E353" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b9a57f0d69d664926b8d071fd590bee9.mp4</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10530,12 @@
       </c>
       <c r="D354" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E354" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b8e0113a887b2585a8c3b1ff8458c856.mp4</t>
         </is>
       </c>
     </row>
@@ -10362,7 +10557,12 @@
       </c>
       <c r="D355" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E355" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0b362f732de5d3debc17787196205032.mp4</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10584,12 @@
       </c>
       <c r="D356" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E356" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/477db79029934cc92e6039a66a44a753.mp4</t>
         </is>
       </c>
     </row>
@@ -10406,7 +10611,12 @@
       </c>
       <c r="D357" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E357" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/787965faa38c3b64e408ae98b61da4d1.mp4</t>
         </is>
       </c>
     </row>
@@ -10428,7 +10638,12 @@
       </c>
       <c r="D358" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E358" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e0dfc0208490f18e9e80e8291796b631.mp4</t>
         </is>
       </c>
     </row>
@@ -10450,7 +10665,12 @@
       </c>
       <c r="D359" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E359" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/187e9c53bd5ab278078400bba9ab0cfa.mp4</t>
         </is>
       </c>
     </row>
@@ -10472,7 +10692,12 @@
       </c>
       <c r="D360" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E360" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4e52030f8c40e492976f79b61d9df3ac.mp4</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10719,12 @@
       </c>
       <c r="D361" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E361" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/74acd839ef6abb0caf39e27c3ffd9a44.mp4</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10746,12 @@
       </c>
       <c r="D362" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E362" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8c56892919fce6a7a820efbf24fbec0e.mp4</t>
         </is>
       </c>
     </row>
@@ -10538,7 +10773,12 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E363" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/68507e987a1651cefff708880227a637.mp4</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10800,12 @@
       </c>
       <c r="D364" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E364" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ded731f3277c7741ed6c2b312f2f7ec5.mp4</t>
         </is>
       </c>
     </row>
@@ -10582,7 +10827,12 @@
       </c>
       <c r="D365" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E365" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f1f46b82a71a209563e115b9c2b63657.mp4</t>
         </is>
       </c>
     </row>
@@ -10604,7 +10854,12 @@
       </c>
       <c r="D366" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E366" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/797a76862e7703f5e7f96cc7b1d432ea.mp4</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10881,12 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E367" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/81dab3b8f8e8997876bb731948d4971c.mp4</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10908,12 @@
       </c>
       <c r="D368" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E368" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b0e784c496baa7268e907ebdc15e598e.mp4</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10935,12 @@
       </c>
       <c r="D369" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E369" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/545badc104ebcf886ff76ee05d33651b.mp4</t>
         </is>
       </c>
     </row>
@@ -10692,7 +10962,12 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E370" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/411be89c6b7dbcde9005b6c39452f535.mp4</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10989,12 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E371" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/84dec4a6a2cfa16d8bc70ac35c6ffd4c.mp4</t>
         </is>
       </c>
     </row>
@@ -10736,7 +11016,12 @@
       </c>
       <c r="D372" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E372" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/43fe075877547ff17d734773074f539e.mp4</t>
         </is>
       </c>
     </row>
@@ -10758,7 +11043,12 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E373" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f31a966dee45af82b7aa61ee488c972e.mp4</t>
         </is>
       </c>
     </row>
@@ -10780,7 +11070,12 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E374" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d536cc9c05d21de2bda39ac7556a6e3f.mp4</t>
         </is>
       </c>
     </row>
@@ -10802,7 +11097,12 @@
       </c>
       <c r="D375" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E375" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f3df465713dcffe8854b2f144d9e62ff.mp4</t>
         </is>
       </c>
     </row>
@@ -10824,7 +11124,12 @@
       </c>
       <c r="D376" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E376" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/10cf1a20089aa7d5ca04edc1dda27617.mp4</t>
         </is>
       </c>
     </row>
@@ -10846,7 +11151,12 @@
       </c>
       <c r="D377" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E377" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a84b29f0e7cc440382c3ea3b7a61f098.mp4</t>
         </is>
       </c>
     </row>
@@ -10868,7 +11178,12 @@
       </c>
       <c r="D378" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E378" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0ce8a397bc59af23b2faa8e2a2783f11.mp4</t>
         </is>
       </c>
     </row>
@@ -10890,7 +11205,12 @@
       </c>
       <c r="D379" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E379" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6bc9e293ca4dde7a180eff7a9c190a00.mp4</t>
         </is>
       </c>
     </row>
@@ -10912,7 +11232,12 @@
       </c>
       <c r="D380" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E380" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b9dc0dc0ad221ed2e3f53f9f14813764.mp4</t>
         </is>
       </c>
     </row>
@@ -10934,7 +11259,12 @@
       </c>
       <c r="D381" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E381" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a01f9f2a6fcbed435edb95829701310f.mp4</t>
         </is>
       </c>
     </row>
@@ -10956,7 +11286,12 @@
       </c>
       <c r="D382" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E382" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7b70d2330f42d90a820de8286d1cdd40.mp4</t>
         </is>
       </c>
     </row>
@@ -10978,7 +11313,12 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E383" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8ee68f7f9766e54b60d8b4d5a1591463.mp4</t>
         </is>
       </c>
     </row>
@@ -11000,7 +11340,12 @@
       </c>
       <c r="D384" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E384" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c9459b0444cfa48d3184d923735c4cf1.mp4</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11367,12 @@
       </c>
       <c r="D385" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E385" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7a294c1e7c5fec3fe885dcaae04475b6.mp4</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11394,12 @@
       </c>
       <c r="D386" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E386" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3c9dd9b13182252e4536f7d363223df8.mp4</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11421,12 @@
       </c>
       <c r="D387" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E387" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b83e47b6ebdfab37459baa79f3fbd833.mp4</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11448,12 @@
       </c>
       <c r="D388" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E388" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b557c5fa6ba41058fef92fd3cb4daf7e.mp4</t>
         </is>
       </c>
     </row>
@@ -11110,7 +11475,12 @@
       </c>
       <c r="D389" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E389" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/96308e47863f3f69090e9e0a6fd8b7a4.mp4</t>
         </is>
       </c>
     </row>
@@ -11132,7 +11502,12 @@
       </c>
       <c r="D390" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E390" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2bdbcc89f1499ea4eac0fdbd4eea2228.mp4</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11529,12 @@
       </c>
       <c r="D391" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E391" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b1608adbfa08f2b9e27290e86cb38a82.mp4</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11556,12 @@
       </c>
       <c r="D392" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E392" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1b9d8d9221bf1c79f7866658aacf3522.mp4</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11583,12 @@
       </c>
       <c r="D393" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E393" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fdd3cc9942d3cf0fb666b5594138191e.mp4</t>
         </is>
       </c>
     </row>
@@ -11220,7 +11610,12 @@
       </c>
       <c r="D394" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E394" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/621fd125ba6b954565b4b6428a5f948a.mp4</t>
         </is>
       </c>
     </row>
@@ -11242,7 +11637,12 @@
       </c>
       <c r="D395" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E395" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/78b29b0cc60ad03367018cbe49174626.mp4</t>
         </is>
       </c>
     </row>
@@ -11264,7 +11664,12 @@
       </c>
       <c r="D396" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E396" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/53aa6874afab16b77fffe2dbf9e372be.mp4</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11691,12 @@
       </c>
       <c r="D397" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E397" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b6768881c59e036f44ccfb23490d3f9e.mp4</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11718,12 @@
       </c>
       <c r="D398" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E398" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/75962094270903da9613f9996ce6d7c1.mp4</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11745,12 @@
       </c>
       <c r="D399" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E399" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e9c36ba92bdcc59fea2b508e2225215e.mp4</t>
         </is>
       </c>
     </row>
@@ -11352,7 +11772,12 @@
       </c>
       <c r="D400" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E400" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/55033731fa792a67cc835c8728470bdf.mp4</t>
         </is>
       </c>
     </row>
@@ -11374,7 +11799,12 @@
       </c>
       <c r="D401" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E401" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/25ee99f6de9a763ff33e2fa6ef36c708.mp4</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11826,12 @@
       </c>
       <c r="D402" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E402" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5a5b06873bcbcfe61076b3f605c61974.mp4</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11853,12 @@
       </c>
       <c r="D403" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E403" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d9d58df9a86e8d1ffe0bf89a4b0df127.mp4</t>
         </is>
       </c>
     </row>
@@ -11440,7 +11880,12 @@
       </c>
       <c r="D404" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E404" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8a25480ab1d47eddaef1f54deea82515.mp4</t>
         </is>
       </c>
     </row>
@@ -11462,7 +11907,12 @@
       </c>
       <c r="D405" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E405" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/99df9ac19cce179415d1700a4fd22494.mp4</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11934,12 @@
       </c>
       <c r="D406" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E406" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0b3b6e86b2b970118ac575355be825ee.mp4</t>
         </is>
       </c>
     </row>
@@ -11506,7 +11961,12 @@
       </c>
       <c r="D407" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E407" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/88a9e55c20c8df9fc7e59cd86af65463.mp4</t>
         </is>
       </c>
     </row>
@@ -11528,7 +11988,12 @@
       </c>
       <c r="D408" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E408" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e25377ad44a863ee7bec29f92b2f890d.mp4</t>
         </is>
       </c>
     </row>
@@ -11550,7 +12015,12 @@
       </c>
       <c r="D409" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E409" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5c3f5ce2eae930c541ab2ad816ee646e.mp4</t>
         </is>
       </c>
     </row>
@@ -11572,7 +12042,12 @@
       </c>
       <c r="D410" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E410" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/19f4d0ab65a39930fcdb3c08fd0f1b31.mp4</t>
         </is>
       </c>
     </row>
@@ -11594,7 +12069,12 @@
       </c>
       <c r="D411" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E411" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/27bd9324ce8ddba2e31f9e3ce086a474.mp4</t>
         </is>
       </c>
     </row>
@@ -11616,7 +12096,12 @@
       </c>
       <c r="D412" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E412" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ad68d8c73cbbc7912248736f96248d7b.mp4</t>
         </is>
       </c>
     </row>
@@ -11638,7 +12123,12 @@
       </c>
       <c r="D413" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E413" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a91c41da8544b0aecc5d34b0b3d5fbea.mp4</t>
         </is>
       </c>
     </row>
@@ -11660,7 +12150,12 @@
       </c>
       <c r="D414" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E414" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/02b36514ad89c8e8dd79b7c63699568d.mp4</t>
         </is>
       </c>
     </row>
@@ -11682,7 +12177,12 @@
       </c>
       <c r="D415" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E415" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/37e8ffc37cd60e56407f15aef2b4724a.mp4</t>
         </is>
       </c>
     </row>
@@ -11704,7 +12204,12 @@
       </c>
       <c r="D416" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E416" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9f5956c0fbacd4146ac19a9a24d93a5b.mp4</t>
         </is>
       </c>
     </row>
@@ -11726,7 +12231,12 @@
       </c>
       <c r="D417" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E417" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/64db163ae00b44162c723359cdce68a1.mp4</t>
         </is>
       </c>
     </row>
@@ -11748,7 +12258,12 @@
       </c>
       <c r="D418" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E418" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1072581783b3185b910dd695cdfb108c.mp4</t>
         </is>
       </c>
     </row>
@@ -11770,7 +12285,12 @@
       </c>
       <c r="D419" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E419" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/caf394027e8e3d4d337b3cefa1681681.mp4</t>
         </is>
       </c>
     </row>
@@ -11792,7 +12312,12 @@
       </c>
       <c r="D420" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E420" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fda906651a32074976cb1cb332279e39.mp4</t>
         </is>
       </c>
     </row>
@@ -11814,7 +12339,12 @@
       </c>
       <c r="D421" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E421" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0359d8222a745e212276987e87b71b83.mp4</t>
         </is>
       </c>
     </row>
@@ -11836,7 +12366,12 @@
       </c>
       <c r="D422" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E422" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/78c3155b9311f90bb165c03f1e2ada7d.mp4</t>
         </is>
       </c>
     </row>
@@ -11858,7 +12393,12 @@
       </c>
       <c r="D423" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E423" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ca9cdb76f84c1dae00ba39626e0b5609.mp4</t>
         </is>
       </c>
     </row>
@@ -11880,7 +12420,12 @@
       </c>
       <c r="D424" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E424" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/12cc418e5cdb37a002d1ceefe8a30087.mp4</t>
         </is>
       </c>
     </row>
@@ -11902,7 +12447,12 @@
       </c>
       <c r="D425" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E425" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0c17e2409178a07a2feb2bbb68de4855.mp4</t>
         </is>
       </c>
     </row>
@@ -11924,7 +12474,12 @@
       </c>
       <c r="D426" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E426" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1b13b96a807fc9318f46e93aca5a5c11.mp4</t>
         </is>
       </c>
     </row>
@@ -11946,7 +12501,12 @@
       </c>
       <c r="D427" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E427" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/29674ed3a71752a5be4c733f720de01e.mp4</t>
         </is>
       </c>
     </row>
@@ -11968,7 +12528,12 @@
       </c>
       <c r="D428" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E428" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/47ba239c306ea540bfee9a5ffb3eb2da.mp4</t>
         </is>
       </c>
     </row>
@@ -11990,7 +12555,12 @@
       </c>
       <c r="D429" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E429" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1a6d16fb22c48b57f0120b7e0d6b4ffc.mp4</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12582,12 @@
       </c>
       <c r="D430" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E430" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/63b3996118ef7ea38f2874d21b83feb1.mp4</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12609,12 @@
       </c>
       <c r="D431" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E431" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bc209a8b6b52fc6195c29939e99c282f.mp4</t>
         </is>
       </c>
     </row>
@@ -12056,7 +12636,12 @@
       </c>
       <c r="D432" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E432" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cd3981908397abe1898aa5a06ffa687e.mp4</t>
         </is>
       </c>
     </row>
@@ -12078,7 +12663,12 @@
       </c>
       <c r="D433" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E433" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/26e1c031031d67a2339fa2d008224176.mp4</t>
         </is>
       </c>
     </row>
@@ -12100,7 +12690,12 @@
       </c>
       <c r="D434" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E434" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c085e60351e941006a2b6977feded5da.mp4</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12717,12 @@
       </c>
       <c r="D435" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E435" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9137a8590843a9cb79e5a08e2b657467.mp4</t>
         </is>
       </c>
     </row>
@@ -12144,7 +12744,12 @@
       </c>
       <c r="D436" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E436" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1a01bda4dd9e141d9ed3bc2a3e58d417.mp4</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12793,12 @@
       </c>
       <c r="D438" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E438" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b0aae04d9f34882c5c50eee24d5fa73b.mp4</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12820,12 @@
       </c>
       <c r="D439" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E439" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8efbcab085311e86f772a377fe033742.mp4</t>
         </is>
       </c>
     </row>
@@ -12232,7 +12847,12 @@
       </c>
       <c r="D440" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E440" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/88f8f73eb000ac1468ff9cdc68b97746.mp4</t>
         </is>
       </c>
     </row>
@@ -12254,7 +12874,12 @@
       </c>
       <c r="D441" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E441" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d3498a27abe612f44a6e29352b560311.mp4</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12901,12 @@
       </c>
       <c r="D442" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E442" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/abde3d22f9a246a11f10733034406f94.mp4</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12928,12 @@
       </c>
       <c r="D443" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E443" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/693869a1a78725a131f0e071074cf83a.mp4</t>
         </is>
       </c>
     </row>
@@ -12320,7 +12955,12 @@
       </c>
       <c r="D444" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E444" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1900e033f079f0fd9432a949b618330e.mp4</t>
         </is>
       </c>
     </row>
@@ -12369,7 +13009,12 @@
       </c>
       <c r="D446" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E446" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4bfba61623d88f9b5481f2463183cdd1.mp4</t>
         </is>
       </c>
     </row>
@@ -12391,7 +13036,12 @@
       </c>
       <c r="D447" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E447" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b93383a503c35b75fe144383293a366b.mp4</t>
         </is>
       </c>
     </row>
@@ -12413,7 +13063,12 @@
       </c>
       <c r="D448" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E448" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0a949fe41ad79b32f3e8a90c1c5367dd.mp4</t>
         </is>
       </c>
     </row>
@@ -12435,7 +13090,12 @@
       </c>
       <c r="D449" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E449" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/27da9d98da87fd175a7bb52aaba8a06c.mp4</t>
         </is>
       </c>
     </row>
@@ -12457,7 +13117,12 @@
       </c>
       <c r="D450" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E450" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fdd0e4e570f22bfdb16e4daab341a331.mp4</t>
         </is>
       </c>
     </row>
@@ -12479,7 +13144,12 @@
       </c>
       <c r="D451" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E451" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/db66ad0ed7ed0f11d53294179e2107c5.mp4</t>
         </is>
       </c>
     </row>
@@ -12501,7 +13171,12 @@
       </c>
       <c r="D452" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E452" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6f0fad6e6be8bec1636b4f56487c6b41.mp4</t>
         </is>
       </c>
     </row>
@@ -12523,7 +13198,12 @@
       </c>
       <c r="D453" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E453" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/31017ac42857905fae9c77f0645f65be.mp4</t>
         </is>
       </c>
     </row>
@@ -12545,7 +13225,12 @@
       </c>
       <c r="D454" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E454" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/97e93d0675904be498a8c8fd557b1b9f.mp4</t>
         </is>
       </c>
     </row>
@@ -12567,7 +13252,12 @@
       </c>
       <c r="D455" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E455" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/436d91bfde6e028548ca25428b2b6adc.mp4</t>
         </is>
       </c>
     </row>
@@ -12589,7 +13279,12 @@
       </c>
       <c r="D456" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E456" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0a6c68e9cf7395936b0e6cdb4b96c667.mp4</t>
         </is>
       </c>
     </row>
@@ -12611,7 +13306,12 @@
       </c>
       <c r="D457" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E457" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/4542e9d1227a9019b0838d9693e594fe.mp4</t>
         </is>
       </c>
     </row>
@@ -12633,7 +13333,12 @@
       </c>
       <c r="D458" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E458" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b56faf24f79484bfdea5f740817e2da6.mp4</t>
         </is>
       </c>
     </row>
@@ -12655,7 +13360,12 @@
       </c>
       <c r="D459" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E459" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ccb64d6de3a6d685b3254e9c2f158cb6.mp4</t>
         </is>
       </c>
     </row>
@@ -12677,7 +13387,12 @@
       </c>
       <c r="D460" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E460" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fcc0787c815b8029295be02b62502b22.mp4</t>
         </is>
       </c>
     </row>
@@ -12699,7 +13414,12 @@
       </c>
       <c r="D461" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E461" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/fe055b0cfafbc1e2ecae92421f92e177.mp4</t>
         </is>
       </c>
     </row>
@@ -12721,7 +13441,12 @@
       </c>
       <c r="D462" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E462" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/afcee535bff23fe52f252b33b318716e.mp4</t>
         </is>
       </c>
     </row>
@@ -12743,7 +13468,12 @@
       </c>
       <c r="D463" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E463" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9a75132cecad546ae36b175bebde3d4a.mp4</t>
         </is>
       </c>
     </row>
@@ -12765,7 +13495,12 @@
       </c>
       <c r="D464" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E464" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/916a1d04d379c81068717868c1b58a99.mp4</t>
         </is>
       </c>
     </row>
@@ -12787,7 +13522,12 @@
       </c>
       <c r="D465" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E465" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f454c516e75c6d820c40608b66c9c903.mp4</t>
         </is>
       </c>
     </row>
@@ -12809,7 +13549,12 @@
       </c>
       <c r="D466" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E466" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1eef5f62ef86f10c13849255097aba57.mp4</t>
         </is>
       </c>
     </row>
@@ -12831,7 +13576,12 @@
       </c>
       <c r="D467" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E467" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/35ef9e7e33762a3f4223f3ba8f579ad9.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_创意广告.xlsx
+++ b/youtube_创意广告.xlsx
@@ -9269,7 +9269,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="E307" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/199c582f74d4ceff4985ace9fcc166ec.mp4</t>
         </is>
@@ -13625,7 +13625,12 @@
       </c>
       <c r="D469" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E469" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0d0fe83f0d5abb3560ff959be60448d3.mp4</t>
         </is>
       </c>
     </row>
@@ -13647,7 +13652,12 @@
       </c>
       <c r="D470" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E470" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/797cc0340e1b2215c0557ec2fb67a29b.mp4</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13679,12 @@
       </c>
       <c r="D471" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E471" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/18c509b3eed8fc6910df3d3e7a891b61.mp4</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13706,12 @@
       </c>
       <c r="D472" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E472" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b7795912fd84f27a65a23f40bddd8bed.mp4</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13733,12 @@
       </c>
       <c r="D473" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E473" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/704f9b1d403f742d958af8553f4addde.mp4</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13760,12 @@
       </c>
       <c r="D474" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E474" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0361ed207f020cc5199ec9df07cd9534.mp4</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13787,12 @@
       </c>
       <c r="D475" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E475" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8fcbabfe4f9ca4f3b42f7f47542f98b9.mp4</t>
         </is>
       </c>
     </row>
@@ -13779,7 +13814,12 @@
       </c>
       <c r="D476" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E476" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ee6815e7a6416d2a4db7a2d8485c6d46.mp4</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13841,12 @@
       </c>
       <c r="D477" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E477" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cd91f350972668428c11ccf89cfd07e5.mp4</t>
         </is>
       </c>
     </row>
@@ -13823,7 +13868,12 @@
       </c>
       <c r="D478" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E478" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0e0a96a39aeeaf72fc9a1b36262a35ce.mp4</t>
         </is>
       </c>
     </row>
@@ -13845,7 +13895,12 @@
       </c>
       <c r="D479" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E479" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b75ba56ef97241ba7ca0582b816654f4.mp4</t>
         </is>
       </c>
     </row>
@@ -13867,7 +13922,12 @@
       </c>
       <c r="D480" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E480" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/775d36e77bacd98afb8b57f42f4c159f.mp4</t>
         </is>
       </c>
     </row>
@@ -13889,7 +13949,12 @@
       </c>
       <c r="D481" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E481" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/adf10cd291e88d3850bf23747d1b18a6.mp4</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13976,12 @@
       </c>
       <c r="D482" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E482" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5fd5bb5894c7ebb3350fa381dde771ed.mp4</t>
         </is>
       </c>
     </row>
@@ -13933,7 +14003,12 @@
       </c>
       <c r="D483" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E483" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2535f78e226439bc755a86285c6de78d.mp4</t>
         </is>
       </c>
     </row>
@@ -13955,7 +14030,12 @@
       </c>
       <c r="D484" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E484" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/81b34ae8811fee1495fc0f80b04773b8.mp4</t>
         </is>
       </c>
     </row>
@@ -13977,7 +14057,12 @@
       </c>
       <c r="D485" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E485" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ecbbf2cf32c43d01e2571471149b12dc.mp4</t>
         </is>
       </c>
     </row>
@@ -13999,7 +14084,12 @@
       </c>
       <c r="D486" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E486" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/be3cfc0bf11e700176973bc2f74204f5.mp4</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14111,12 @@
       </c>
       <c r="D487" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E487" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/54c829076a6887f5341ac809aca791dd.mp4</t>
         </is>
       </c>
     </row>
@@ -14065,7 +14160,12 @@
       </c>
       <c r="D489" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b0204b6bc42e078673e7cb8708033be7.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_创意广告.xlsx
+++ b/youtube_创意广告.xlsx
@@ -14163,7 +14163,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="E489" t="inlineStr">
+      <c r="E489" s="0" t="inlineStr">
         <is>
           <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b0204b6bc42e078673e7cb8708033be7.mp4</t>
         </is>
@@ -14187,7 +14187,12 @@
       </c>
       <c r="D490" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E490" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6a156ec2f52ddbe74e3cd00ada6f8f24.mp4</t>
         </is>
       </c>
     </row>
@@ -14209,7 +14214,12 @@
       </c>
       <c r="D491" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E491" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8eda45e2c6e0433558a11499c24b7c99.mp4</t>
         </is>
       </c>
     </row>

--- a/youtube_创意广告.xlsx
+++ b/youtube_创意广告.xlsx
@@ -14425,7 +14425,12 @@
       </c>
       <c r="D499" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E499" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/21cec1870fcfe8990f0bda3ab2fdc0ee.mp4</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14776,12 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E512" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/34cfe08582b409771ac305c1563b2ce6.mp4</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14803,12 @@
       </c>
       <c r="D513" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E513" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/45a415460dcc41b4431ab74b0de70d4b.mp4</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14830,12 @@
       </c>
       <c r="D514" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E514" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2b6c7a84fc13ecaf24770806ba6f2742.mp4</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14857,12 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E515" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0f4c0103a03393fc54f0a95176c1af71.mp4</t>
         </is>
       </c>
     </row>
@@ -14859,7 +14884,12 @@
       </c>
       <c r="D516" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E516" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e5c7215d4500ab46fe29b3a54b77a912.mp4</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14938,12 @@
       </c>
       <c r="D518" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E518" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/85ced1f9438716f174fe87cbd96ed55e.mp4</t>
         </is>
       </c>
     </row>
@@ -14930,7 +14965,12 @@
       </c>
       <c r="D519" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E519" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3967932e2fbed227fba100a9b6dea8a2.mp4</t>
         </is>
       </c>
     </row>
@@ -14952,7 +14992,12 @@
       </c>
       <c r="D520" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E520" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/f452f3b539f5a2df52ec92e1c6d52f41.mp4</t>
         </is>
       </c>
     </row>
@@ -14974,7 +15019,12 @@
       </c>
       <c r="D521" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E521" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a75e4965677f13e8059af6531d52d1ee.mp4</t>
         </is>
       </c>
     </row>
@@ -14996,7 +15046,12 @@
       </c>
       <c r="D522" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E522" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5adae0e48be6bf0b8b434bd19d5b2ada.mp4</t>
         </is>
       </c>
     </row>
@@ -15018,7 +15073,12 @@
       </c>
       <c r="D523" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E523" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/32e14874032f553ef395fd3f8b63e13f.mp4</t>
         </is>
       </c>
     </row>
@@ -15040,7 +15100,12 @@
       </c>
       <c r="D524" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E524" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/3096f8890076f162f0cc520cd8a2e727.mp4</t>
         </is>
       </c>
     </row>
@@ -15062,7 +15127,12 @@
       </c>
       <c r="D525" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E525" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b411252e08ba802921626a981ba1d853.mp4</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15154,12 @@
       </c>
       <c r="D526" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E526" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/eb13796b63b4e02daec8fde11ae7426c.mp4</t>
         </is>
       </c>
     </row>
@@ -15106,7 +15181,12 @@
       </c>
       <c r="D527" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E527" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1b372ebddb69514971db59cc3ef3de25.mp4</t>
         </is>
       </c>
     </row>
@@ -15128,7 +15208,12 @@
       </c>
       <c r="D528" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E528" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/64484dcf2f9567f5af8fec54c54e8dc8.mp4</t>
         </is>
       </c>
     </row>
@@ -15150,7 +15235,12 @@
       </c>
       <c r="D529" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E529" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/b64b70dc9d40e8c17ef4e233de60b555.mp4</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15262,12 @@
       </c>
       <c r="D530" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E530" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/14d237b42d7a4c1f78a303419fba0401.mp4</t>
         </is>
       </c>
     </row>
@@ -15194,7 +15289,12 @@
       </c>
       <c r="D531" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E531" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8a2e4ca2ee14cf4700653fc4fe863ed4.mp4</t>
         </is>
       </c>
     </row>
@@ -15238,7 +15338,12 @@
       </c>
       <c r="D533" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E533" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bea9d5b20f2abb5c63466168876c2df9.mp4</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15365,12 @@
       </c>
       <c r="D534" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E534" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ff097a5b95d3e6148e4323f4fc40392a.mp4</t>
         </is>
       </c>
     </row>
@@ -15282,7 +15392,12 @@
       </c>
       <c r="D535" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E535" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bcaec7f4343ab88de76ee1f91149a2d9.mp4</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15419,12 @@
       </c>
       <c r="D536" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E536" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/ab3cba9ecabbcd1c27d5d20938d990dd.mp4</t>
         </is>
       </c>
     </row>
@@ -15326,7 +15446,12 @@
       </c>
       <c r="D537" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E537" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/9810c61f6e83ea186d48e3fffd99eef1.mp4</t>
         </is>
       </c>
     </row>
@@ -15348,7 +15473,12 @@
       </c>
       <c r="D538" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E538" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/926ce1f5d75ba143beaaec89a8f3f3d9.mp4</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15500,12 @@
       </c>
       <c r="D539" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E539" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/023d6ae4a6a51e531df17b3f80791cbe.mp4</t>
         </is>
       </c>
     </row>
@@ -15392,7 +15527,12 @@
       </c>
       <c r="D540" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E540" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/933a8c4b1aef5076fe90ec3b9d86b3de.mp4</t>
         </is>
       </c>
     </row>
@@ -15414,7 +15554,12 @@
       </c>
       <c r="D541" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E541" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/d528069b9a0c34bde5bde46e05234fb6.mp4</t>
         </is>
       </c>
     </row>
@@ -15436,7 +15581,12 @@
       </c>
       <c r="D542" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E542" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/bb03dc07786ef169128690b12ed71e6f.mp4</t>
         </is>
       </c>
     </row>
@@ -15458,7 +15608,12 @@
       </c>
       <c r="D543" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E543" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2b24877839e04015459c283301294211.mp4</t>
         </is>
       </c>
     </row>
@@ -15480,7 +15635,12 @@
       </c>
       <c r="D544" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E544" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7ac0639cd038e52c50dec93e64c1d617.mp4</t>
         </is>
       </c>
     </row>
@@ -15502,7 +15662,12 @@
       </c>
       <c r="D545" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E545" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/e22a18af915d57280fc67127c24c91d8.mp4</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15711,12 @@
       </c>
       <c r="D547" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E547" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8cc5b142c72bffb361c9878e11342315.mp4</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15738,12 @@
       </c>
       <c r="D548" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E548" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7fa5b5190f51175aee7bfc58cd5250a5.mp4</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15765,12 @@
       </c>
       <c r="D549" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E549" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/cb9c95e6db3a6481c1230ee476ac3276.mp4</t>
         </is>
       </c>
     </row>
@@ -15612,7 +15792,12 @@
       </c>
       <c r="D550" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E550" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8c9e66566ccfd94df077a090f457aead.mp4</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15819,12 @@
       </c>
       <c r="D551" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E551" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1dc6c73e716e570cd082c559aaa7e65d.mp4</t>
         </is>
       </c>
     </row>
@@ -15656,7 +15846,12 @@
       </c>
       <c r="D552" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E552" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/14d407238df2d3e30aadd23abb38c51b.mp4</t>
         </is>
       </c>
     </row>
@@ -15678,7 +15873,12 @@
       </c>
       <c r="D553" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E553" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/03b497276111e368f4c58afd0055b789.mp4</t>
         </is>
       </c>
     </row>
@@ -15700,7 +15900,12 @@
       </c>
       <c r="D554" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E554" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a2105cdbc3c0e69ee3aab629e4ea0b11.mp4</t>
         </is>
       </c>
     </row>
@@ -15722,7 +15927,12 @@
       </c>
       <c r="D555" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E555" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/271a037476b4c02cd08c4ce33c4c05a8.mp4</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15954,12 @@
       </c>
       <c r="D556" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E556" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/854ac21b386b89739e3b2dc3b204eea0.mp4</t>
         </is>
       </c>
     </row>
@@ -15766,7 +15981,12 @@
       </c>
       <c r="D557" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E557" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/66038e5ae072058f7cb4b3d8839ceac5.mp4</t>
         </is>
       </c>
     </row>
@@ -15788,7 +16008,12 @@
       </c>
       <c r="D558" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E558" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8d3508507bfb70a8809b9d69a2516f55.mp4</t>
         </is>
       </c>
     </row>
@@ -15810,7 +16035,12 @@
       </c>
       <c r="D559" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E559" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/5f1d928951440f758652e86f5f62e9be.mp4</t>
         </is>
       </c>
     </row>
@@ -15832,7 +16062,12 @@
       </c>
       <c r="D560" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E560" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1ad634ea693aedc76a3359f408ad1579.mp4</t>
         </is>
       </c>
     </row>
@@ -15854,7 +16089,12 @@
       </c>
       <c r="D561" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E561" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/2023ad3a3e260e447852caf5f4f9dda8.mp4</t>
         </is>
       </c>
     </row>
@@ -15876,7 +16116,12 @@
       </c>
       <c r="D562" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E562" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/442a127453a4c69f50180671a8982ac9.mp4</t>
         </is>
       </c>
     </row>
@@ -15898,7 +16143,12 @@
       </c>
       <c r="D563" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E563" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/badb066614ea4966b66b952f98cbddc0.mp4</t>
         </is>
       </c>
     </row>
@@ -15920,7 +16170,12 @@
       </c>
       <c r="D564" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E564" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8a82cad825527703cd931b4db1ae227f.mp4</t>
         </is>
       </c>
     </row>
@@ -15942,7 +16197,12 @@
       </c>
       <c r="D565" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E565" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/757a3fdade9309dfb097e0b5f7e9bee8.mp4</t>
         </is>
       </c>
     </row>
@@ -15964,7 +16224,12 @@
       </c>
       <c r="D566" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E566" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/8502440517b2774ebdff1dfd83eec6b2.mp4</t>
         </is>
       </c>
     </row>
@@ -15986,7 +16251,12 @@
       </c>
       <c r="D567" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E567" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/1e85d0f12114728788a966606612c332.mp4</t>
         </is>
       </c>
     </row>
@@ -16030,7 +16300,12 @@
       </c>
       <c r="D569" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E569" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/95940ed82059221687627d311c8ddfcd.mp4</t>
         </is>
       </c>
     </row>
@@ -16052,7 +16327,12 @@
       </c>
       <c r="D570" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E570" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/047f557b6c11ef687b46501b11948ee6.mp4</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16354,12 @@
       </c>
       <c r="D571" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E571" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/c9dd8b0305560086ba012b433d1a3728.mp4</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16381,12 @@
       </c>
       <c r="D572" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E572" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/0b3c1115c5805fa4405cebe8628cfb64.mp4</t>
         </is>
       </c>
     </row>
@@ -16118,7 +16408,12 @@
       </c>
       <c r="D573" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E573" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/6562ad745b3b29861c71bca3960bbb47.mp4</t>
         </is>
       </c>
     </row>
@@ -16140,7 +16435,12 @@
       </c>
       <c r="D574" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E574" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/7b77cc82f6274c91633858c4fd98e80a.mp4</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16462,12 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E575" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/a9637b8e9fca5c478ad83715f3e061cf.mp4</t>
         </is>
       </c>
     </row>
@@ -16184,7 +16489,12 @@
       </c>
       <c r="D576" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E576" s="0" t="inlineStr">
+        <is>
+          <t>http://obs-cn-shenzhen.yun.pingan.com/spider/aa51f1a260c578f5ad5c06d192e9f66e.mp4</t>
         </is>
       </c>
     </row>
